--- a/va_facility_data_2025-02-20/Cincinnati VA Medical Center-Fort Thomas - Facility Data.xlsx"; filename*=UTF-8''Cincinnati%20VA%20Medical%20Center-Fort%20Thomas%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cincinnati VA Medical Center-Fort Thomas - Facility Data.xlsx"; filename*=UTF-8''Cincinnati%20VA%20Medical%20Center-Fort%20Thomas%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rad5aab382bed4875b2dc85dbdf33510f"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rc0225ea4fb154ba098ef9e9264ee3a48"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R888bf8e0557f4f109c044ef197e74007"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R279c76f2990e4fe19ab342488da3bd91"/>
   </x:sheets>
 </x:workbook>
 </file>
